--- a/project-management/time-tracking/Isabella-Hall.xlsx
+++ b/project-management/time-tracking/Isabella-Hall.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellahall/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80568AEC-ADD8-B742-BD12-5750F59A24E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>Team Meetings</t>
   </si>
@@ -143,37 +165,174 @@
   </si>
   <si>
     <t xml:space="preserve">Work Total: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring 2025 </t>
+  </si>
+  <si>
+    <t>Fall Semester Total</t>
+  </si>
+  <si>
+    <t>Spring 2025</t>
+  </si>
+  <si>
+    <t>Meeting with Giovanni</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>Look through and understand the front end changes with Typescript conversion and seeing what needs to be overhauled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on creating test cases for the first assignment </t>
+  </si>
+  <si>
+    <t>Continued to create test cases and continued working on assignment 1</t>
+  </si>
+  <si>
+    <t>Looked into how to use bootsrap components to reformat and simplify code implementation</t>
+  </si>
+  <si>
+    <t>Adding in more test cases, and creating test case matrix for assignment 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished Assignment 1 </t>
+  </si>
+  <si>
+    <t>Worked on formatting for UI for dynamic call stack page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continued to work on UI design and code refactoring </t>
+  </si>
+  <si>
+    <t>UI redesign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI Deisgn </t>
+  </si>
+  <si>
+    <t>Work/Assignment Time  (Hours)</t>
+  </si>
+  <si>
+    <t>changing the way the file structure is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulling new changes down, implementing csss fiile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still working on UI design changes </t>
+  </si>
+  <si>
+    <t>UI Error work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assignment 3 Work </t>
+  </si>
+  <si>
+    <t>Attempting to merge code and fix issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with teammate to go over next steps </t>
+  </si>
+  <si>
+    <t>Started Poster</t>
+  </si>
+  <si>
+    <t>Fixing UI</t>
+  </si>
+  <si>
+    <t>Wrapping up the poster</t>
+  </si>
+  <si>
+    <t>More poster changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redesigning poster to resize </t>
+  </si>
+  <si>
+    <t>Making more UI tweaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> changing the scroll aspects</t>
+  </si>
+  <si>
+    <t>Team Meeting &amp; Meeting with Giovanni to go over progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Meeting </t>
+  </si>
+  <si>
+    <t>Team Working Session</t>
+  </si>
+  <si>
+    <t>Final pre expo working session</t>
+  </si>
+  <si>
+    <t>Total Meeting Hours</t>
+  </si>
+  <si>
+    <t>Final poster submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating the pop error box for unsupported operands and instructions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finishing and testing the pop up error box </t>
+  </si>
+  <si>
+    <t>Working on the self assessment assignment</t>
+  </si>
+  <si>
+    <t>Presenting final progress to Giovanni</t>
+  </si>
+  <si>
+    <t>Working on updating design diagrams, the test case results, and my time sheet</t>
+  </si>
+  <si>
+    <t>Spring Semester Total: 81 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="m/d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,60 +340,80 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -424,40 +603,45 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
+      <c r="K1" s="13"/>
+      <c r="L1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="D2" s="3"/>
       <c r="G2" s="4"/>
@@ -465,9 +649,9 @@
       <c r="J2" s="4"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="5">
-        <v>45531.0</v>
+        <v>45531</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -480,7 +664,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="2"/>
       <c r="J3" s="5">
-        <v>45542.0</v>
+        <v>45542</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>6</v>
@@ -489,9 +673,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="5">
-        <v>45532.0</v>
+        <v>45532</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -500,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="3">
-        <v>45555.0</v>
+        <v>45555</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>10</v>
@@ -509,9 +693,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="5">
-        <v>45533.0</v>
+        <v>45533</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -520,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="3">
-        <v>45556.0</v>
+        <v>45556</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>8</v>
@@ -529,9 +713,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="5">
-        <v>45545.0</v>
+        <v>45545</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -540,7 +724,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="7">
-        <v>45570.0</v>
+        <v>45570</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>4</v>
@@ -549,9 +733,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="5">
-        <v>45552.0</v>
+        <v>45552</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -560,7 +744,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="3">
-        <v>45581.0</v>
+        <v>45581</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>6</v>
@@ -569,9 +753,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="5">
-        <v>45559.0</v>
+        <v>45559</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -580,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="J8" s="3">
-        <v>45592.0</v>
+        <v>45592</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>10</v>
@@ -589,9 +773,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="8">
-        <v>45566.0</v>
+        <v>45566</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -600,7 +784,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="7">
-        <v>45597.0</v>
+        <v>45597</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>6</v>
@@ -609,9 +793,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="5">
-        <v>45572.0</v>
+        <v>45572</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
@@ -620,7 +804,7 @@
         <v>23</v>
       </c>
       <c r="J10" s="7">
-        <v>45601.0</v>
+        <v>45601</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>24</v>
@@ -629,9 +813,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="5">
-        <v>45580.0</v>
+        <v>45580</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -640,7 +824,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="3">
-        <v>45606.0</v>
+        <v>45606</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>8</v>
@@ -649,9 +833,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="5">
-        <v>45594.0</v>
+        <v>45594</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -660,7 +844,7 @@
         <v>28</v>
       </c>
       <c r="J12" s="3">
-        <v>45607.0</v>
+        <v>45607</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>8</v>
@@ -669,9 +853,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="5">
-        <v>45602.0</v>
+        <v>45602</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -680,7 +864,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="3">
-        <v>45613.0</v>
+        <v>45613</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>8</v>
@@ -689,9 +873,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="5">
-        <v>45608.0</v>
+        <v>45608</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -700,7 +884,7 @@
         <v>32</v>
       </c>
       <c r="J14" s="3">
-        <v>45616.0</v>
+        <v>45616</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>8</v>
@@ -709,9 +893,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="5">
-        <v>45615.0</v>
+        <v>45615</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>34</v>
@@ -720,7 +904,7 @@
         <v>35</v>
       </c>
       <c r="J15" s="3">
-        <v>45621.0</v>
+        <v>45621</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>6</v>
@@ -729,9 +913,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="3">
-        <v>45622.0</v>
+        <v>45622</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -740,7 +924,7 @@
         <v>37</v>
       </c>
       <c r="J16" s="3">
-        <v>45623.0</v>
+        <v>45623</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>24</v>
@@ -749,9 +933,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="J17" s="9">
-        <v>45624.0</v>
+        <v>45624</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>6</v>
@@ -760,9 +944,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="J18" s="3">
-        <v>45625.0</v>
+        <v>45625</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>40</v>
@@ -771,9 +955,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="J19" s="3">
-        <v>45626.0</v>
+        <v>45626</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>22</v>
@@ -782,7 +966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
@@ -790,15 +974,533 @@
         <v>43</v>
       </c>
       <c r="K21" s="1">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="1">
         <v>17.5</v>
       </c>
     </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+      <c r="B25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A27" s="16">
+        <v>45672</v>
+      </c>
+      <c r="B27" s="14">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="15">
+        <v>45677</v>
+      </c>
+      <c r="K27" s="14">
+        <v>3</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A28" s="15">
+        <v>45673</v>
+      </c>
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="15">
+        <v>45678</v>
+      </c>
+      <c r="K28" s="14">
+        <v>3</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A29" s="15">
+        <v>45680</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="15">
+        <v>45679</v>
+      </c>
+      <c r="K29" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A30" s="15">
+        <v>45687</v>
+      </c>
+      <c r="B30" s="14">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="15">
+        <v>45681</v>
+      </c>
+      <c r="K30" s="17">
+        <v>2</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A31" s="15">
+        <v>45694</v>
+      </c>
+      <c r="B31" s="14">
+        <v>1</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="15">
+        <v>45682</v>
+      </c>
+      <c r="K31" s="14">
+        <v>3</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A32" s="15">
+        <v>45701</v>
+      </c>
+      <c r="B32" s="14">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="15">
+        <v>45682</v>
+      </c>
+      <c r="K32" s="14">
+        <v>1</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="15">
+        <v>45705</v>
+      </c>
+      <c r="B33" s="14">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="15">
+        <v>45684</v>
+      </c>
+      <c r="K33" s="14">
+        <v>2</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="15">
+        <v>45715</v>
+      </c>
+      <c r="B34" s="14">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="15">
+        <v>45685</v>
+      </c>
+      <c r="K34" s="14">
+        <v>2</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A35" s="15">
+        <v>45722</v>
+      </c>
+      <c r="B35" s="14">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="15">
+        <v>45686</v>
+      </c>
+      <c r="K35" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A36" s="15">
+        <v>45742</v>
+      </c>
+      <c r="B36" s="14">
+        <v>2</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="15">
+        <v>45689</v>
+      </c>
+      <c r="K36" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A37" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B37" s="14">
+        <v>2</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" s="15">
+        <v>45693</v>
+      </c>
+      <c r="K37" s="14">
+        <v>2</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A38" s="15">
+        <v>45750</v>
+      </c>
+      <c r="B38" s="14">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J38" s="15">
+        <v>45698</v>
+      </c>
+      <c r="K38" s="14">
+        <v>2</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A39" s="15">
+        <v>45753</v>
+      </c>
+      <c r="B39" s="14">
+        <v>3</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" s="15">
+        <v>45699</v>
+      </c>
+      <c r="K39" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A40" s="15">
+        <v>45754</v>
+      </c>
+      <c r="B40" s="14">
+        <v>2</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="15">
+        <v>45703</v>
+      </c>
+      <c r="K40" s="14">
+        <v>3</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A41" s="15">
+        <v>45761</v>
+      </c>
+      <c r="B41" s="14">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="15">
+        <v>45704</v>
+      </c>
+      <c r="K41" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+      <c r="J42" s="15">
+        <v>45705</v>
+      </c>
+      <c r="K42" s="14">
+        <v>2</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+      <c r="J43" s="15">
+        <v>45708</v>
+      </c>
+      <c r="K43" s="14">
+        <v>1</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+      <c r="J44" s="15">
+        <v>45712</v>
+      </c>
+      <c r="K44" s="14">
+        <v>1</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+      <c r="J45" s="15">
+        <v>45714</v>
+      </c>
+      <c r="K45" s="14">
+        <v>1</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A46" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46">
+        <f>SUM(B27:B41)</f>
+        <v>20</v>
+      </c>
+      <c r="J46" s="15">
+        <v>45717</v>
+      </c>
+      <c r="K46" s="14">
+        <v>2</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
+      <c r="J47" s="15">
+        <v>45718</v>
+      </c>
+      <c r="K47" s="14">
+        <v>2</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
+      <c r="J48" s="18">
+        <v>45722</v>
+      </c>
+      <c r="K48" s="14">
+        <v>2</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="10:13" ht="15.75" customHeight="1">
+      <c r="J49" s="15">
+        <v>45724</v>
+      </c>
+      <c r="K49" s="14">
+        <v>2</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="10:13" ht="15.75" customHeight="1">
+      <c r="J50" s="15">
+        <v>45730</v>
+      </c>
+      <c r="K50" s="14">
+        <v>2</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="10:13" ht="15.75" customHeight="1">
+      <c r="J51" s="15">
+        <v>45732</v>
+      </c>
+      <c r="K51" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="10:13" ht="15.75" customHeight="1">
+      <c r="J52" s="15">
+        <v>45736</v>
+      </c>
+      <c r="K52" s="14">
+        <v>3</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="10:13" ht="15.75" customHeight="1">
+      <c r="J53" s="15">
+        <v>45748</v>
+      </c>
+      <c r="K53" s="14">
+        <v>2</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="10:13" ht="15.75" customHeight="1">
+      <c r="J54" s="15">
+        <v>45749</v>
+      </c>
+      <c r="K54" s="14">
+        <v>2</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="10:13" ht="15.75" customHeight="1">
+      <c r="J55" s="15">
+        <v>45755</v>
+      </c>
+      <c r="K55" s="14">
+        <v>2</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="10:13" ht="15.75" customHeight="1">
+      <c r="J56" s="15">
+        <v>45756</v>
+      </c>
+      <c r="K56" s="14">
+        <v>3</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="10:13" ht="15.75" customHeight="1">
+      <c r="K61" s="10">
+        <f>SUM(K27:K58)</f>
+        <v>61</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>